--- a/biology/Médecine/Nerf_cutané_latéral_de_l'avant-bras/Nerf_cutané_latéral_de_l'avant-bras.xlsx
+++ b/biology/Médecine/Nerf_cutané_latéral_de_l'avant-bras/Nerf_cutané_latéral_de_l'avant-bras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_lat%C3%A9ral_de_l%27avant-bras</t>
+          <t>Nerf_cutané_latéral_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané latéral de l’avant-bras (ou nerf cutané antébrachial latéral) est un nerf sensitif de l'avant-bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_lat%C3%A9ral_de_l%27avant-bras</t>
+          <t>Nerf_cutané_latéral_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané latéral de l’avant-bras est la branche terminale du nerf musculo-cutané lorsque celui-ci devient superficiel en traversant le fascia brachial.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_lat%C3%A9ral_de_l%27avant-bras</t>
+          <t>Nerf_cutané_latéral_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,17 +556,11 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané latéral de l’avant-bras passe derrière la veine céphalique, et se divise, à l'opposé de l'articulation du coude, en une branche palmaire et une branche dorsale.
-Branche palmaire
-La branche palmaire descend à l'avant du bord radial de l'avant-bras jusqu'au poignet.
-Au niveau de l'articulation du poignet, il passe devant l'artère radiale et descend ensuite jusqu'à l'éminence thénar où il se termine.
-Elle innerve la zone cutanée antéro-latérale et de l'éminence thénar.
-Branche dorsale
-La branche dorsale descend à l'arrière du bord radial de l'avant-bras jusqu'au poignet puis se termine dans la face dorsale de la main.
-Elle communique avec la branche superficielle du nerf radial et le nerf cutané médial de l’avant-bras.
-Elle innerve la peau des deux tiers inférieurs de la face dorso-latérale de l'avant-bras,
 </t>
         </is>
       </c>
@@ -563,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_lat%C3%A9ral_de_l%27avant-bras</t>
+          <t>Nerf_cutané_latéral_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +586,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Branche palmaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La branche palmaire descend à l'avant du bord radial de l'avant-bras jusqu'au poignet.
+Au niveau de l'articulation du poignet, il passe devant l'artère radiale et descend ensuite jusqu'à l'éminence thénar où il se termine.
+Elle innerve la zone cutanée antéro-latérale et de l'éminence thénar.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_cutané_latéral_de_l'avant-bras</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_cutan%C3%A9_lat%C3%A9ral_de_l%27avant-bras</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Branche dorsale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La branche dorsale descend à l'arrière du bord radial de l'avant-bras jusqu'au poignet puis se termine dans la face dorsale de la main.
+Elle communique avec la branche superficielle du nerf radial et le nerf cutané médial de l’avant-bras.
+Elle innerve la peau des deux tiers inférieurs de la face dorso-latérale de l'avant-bras,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerf_cutané_latéral_de_l'avant-bras</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_cutan%C3%A9_lat%C3%A9ral_de_l%27avant-bras</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané latéral de l’avant-bras peut subir une compression au niveau du coude (syndrome du sac à main) entraînant des troubles sensitifs au niveau de l'avant-bras sans signe moteur qui indiquerait une lésion en amont du nerf musculo-cutané.
 </t>
